--- a/outputs/stage_match.xlsx
+++ b/outputs/stage_match.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>AIR-INK: Air-Pollution to ink</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>BMW Foundation Herbert Quandt</t>
-  </si>
-  <si>
-    <t>Buenos Aires Innovation Park (City of Buenos Aires Government)</t>
   </si>
   <si>
     <t>C L Sandberg &amp; Associates</t>
@@ -590,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1005,97 +1002,97 @@
         <v>36</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <v>1</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5">
         <v>1</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5">
         <v>1</v>
@@ -1115,25 +1112,25 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -1148,31 +1145,31 @@
         <v>1</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>1</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>1</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -1181,10 +1178,10 @@
         <v>1</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>1</v>
@@ -1193,13 +1190,13 @@
         <v>1</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -1412,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1513,31 +1510,31 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -1552,31 +1549,31 @@
         <v>1</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>1</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
         <v>1</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
         <v>1</v>
@@ -1585,10 +1582,10 @@
         <v>1</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
         <v>1</v>
@@ -1597,13 +1594,13 @@
         <v>1</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -1611,13 +1608,13 @@
         <v>42</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1626,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1641,25 +1638,25 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <v>1</v>
@@ -1668,34 +1665,34 @@
         <v>1</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11">
         <v>1</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11">
         <v>1</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11">
         <v>1</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11">
         <v>1</v>
@@ -1704,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -1712,13 +1709,13 @@
         <v>43</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1727,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1742,16 +1739,16 @@
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -1760,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -1775,16 +1772,16 @@
         <v>1</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12">
         <v>1</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -1793,10 +1790,10 @@
         <v>1</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12">
         <v>1</v>
@@ -1858,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13">
         <v>1</v>
@@ -1870,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13">
         <v>1</v>
@@ -1888,7 +1885,7 @@
         <v>1</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13">
         <v>1</v>
@@ -1906,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -1923,25 +1920,25 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -1956,31 +1953,31 @@
         <v>1</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14">
         <v>1</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14">
         <v>1</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14">
         <v>1</v>
@@ -1989,10 +1986,10 @@
         <v>1</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14">
         <v>1</v>
@@ -2001,13 +1998,13 @@
         <v>1</v>
       </c>
       <c r="AE14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -2119,31 +2116,31 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -2158,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -2167,22 +2164,22 @@
         <v>1</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <v>1</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16">
         <v>1</v>
@@ -2194,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16">
         <v>1</v>
@@ -2203,10 +2200,10 @@
         <v>1</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16">
         <v>0</v>
@@ -2262,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17">
         <v>1</v>
@@ -2274,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17">
         <v>1</v>
@@ -2292,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17">
         <v>1</v>
@@ -2310,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:33">
@@ -2321,7 +2318,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2464,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19">
         <v>1</v>
@@ -2476,7 +2473,7 @@
         <v>1</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19">
         <v>1</v>
@@ -2494,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19">
         <v>1</v>
@@ -2512,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="AG19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -2529,25 +2526,25 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -2562,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -2571,22 +2568,22 @@
         <v>1</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20">
         <v>0</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20">
         <v>1</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>1</v>
@@ -2598,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20">
         <v>1</v>
@@ -2607,10 +2604,10 @@
         <v>1</v>
       </c>
       <c r="AE20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG20">
         <v>0</v>
@@ -2624,31 +2621,31 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -2663,31 +2660,31 @@
         <v>1</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21">
         <v>1</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
         <v>1</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21">
         <v>1</v>
@@ -2696,10 +2693,10 @@
         <v>1</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21">
         <v>1</v>
@@ -2708,13 +2705,13 @@
         <v>1</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:33">
@@ -2722,13 +2719,13 @@
         <v>53</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2737,7 +2734,7 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2752,16 +2749,16 @@
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -2770,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22">
         <v>1</v>
@@ -2785,16 +2782,16 @@
         <v>1</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22">
         <v>1</v>
       </c>
       <c r="Y22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA22">
         <v>1</v>
@@ -2803,10 +2800,10 @@
         <v>1</v>
       </c>
       <c r="AC22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22">
         <v>1</v>
@@ -2832,25 +2829,25 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2865,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -2874,22 +2871,22 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23">
         <v>1</v>
       </c>
       <c r="V23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2901,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -2910,10 +2907,10 @@
         <v>0</v>
       </c>
       <c r="AE23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG23">
         <v>1</v>
@@ -2924,97 +2921,97 @@
         <v>55</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
         <v>1</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24">
         <v>1</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24">
         <v>1</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG24">
         <v>1</v>
@@ -3025,13 +3022,13 @@
         <v>56</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -3040,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -3055,16 +3052,16 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>1</v>
@@ -3073,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="R25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25">
         <v>1</v>
@@ -3088,16 +3085,16 @@
         <v>1</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25">
         <v>1</v>
       </c>
       <c r="Y25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25">
         <v>1</v>
@@ -3106,10 +3103,10 @@
         <v>1</v>
       </c>
       <c r="AC25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25">
         <v>1</v>
@@ -3129,31 +3126,31 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -3168,31 +3165,31 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26">
         <v>0</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -3201,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -3213,13 +3210,13 @@
         <v>0</v>
       </c>
       <c r="AE26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:33">
@@ -3227,97 +3224,97 @@
         <v>58</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27">
         <v>0</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA27">
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG27">
         <v>0</v>
@@ -3331,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -3530,97 +3527,97 @@
         <v>61</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30">
         <v>0</v>
       </c>
       <c r="V30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA30">
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30">
         <v>0</v>
@@ -3631,13 +3628,13 @@
         <v>62</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3646,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3661,16 +3658,16 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -3679,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -3694,16 +3691,16 @@
         <v>0</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31">
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA31">
         <v>0</v>
@@ -3712,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE31">
         <v>0</v>
@@ -3937,31 +3934,31 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -3976,31 +3973,31 @@
         <v>1</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34">
         <v>1</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34">
         <v>1</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34">
         <v>1</v>
@@ -4009,10 +4006,10 @@
         <v>1</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34">
         <v>1</v>
@@ -4021,13 +4018,13 @@
         <v>1</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:33">
@@ -4080,7 +4077,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35">
         <v>1</v>
@@ -4092,7 +4089,7 @@
         <v>1</v>
       </c>
       <c r="U35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35">
         <v>1</v>
@@ -4110,7 +4107,7 @@
         <v>1</v>
       </c>
       <c r="AA35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB35">
         <v>1</v>
@@ -4128,7 +4125,7 @@
         <v>1</v>
       </c>
       <c r="AG35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:33">
@@ -4139,31 +4136,31 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -4178,7 +4175,7 @@
         <v>1</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -4187,22 +4184,22 @@
         <v>1</v>
       </c>
       <c r="S36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36">
         <v>0</v>
       </c>
       <c r="V36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36">
         <v>1</v>
       </c>
       <c r="X36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36">
         <v>1</v>
@@ -4214,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="AB36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC36">
         <v>1</v>
@@ -4223,10 +4220,10 @@
         <v>1</v>
       </c>
       <c r="AE36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG36">
         <v>0</v>
@@ -4240,31 +4237,31 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -4279,31 +4276,31 @@
         <v>1</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37">
         <v>1</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37">
         <v>1</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37">
         <v>1</v>
@@ -4312,10 +4309,10 @@
         <v>1</v>
       </c>
       <c r="AA37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC37">
         <v>1</v>
@@ -4324,13 +4321,13 @@
         <v>1</v>
       </c>
       <c r="AE37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:33">
@@ -4347,25 +4344,25 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -4380,31 +4377,31 @@
         <v>1</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38">
         <v>1</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38">
         <v>1</v>
       </c>
       <c r="X38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y38">
         <v>1</v>
@@ -4413,10 +4410,10 @@
         <v>1</v>
       </c>
       <c r="AA38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC38">
         <v>1</v>
@@ -4425,13 +4422,13 @@
         <v>1</v>
       </c>
       <c r="AE38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:33">
@@ -4439,13 +4436,13 @@
         <v>70</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -4454,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4469,16 +4466,16 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -4487,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="R39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -4502,16 +4499,16 @@
         <v>0</v>
       </c>
       <c r="W39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39">
         <v>0</v>
       </c>
       <c r="Y39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA39">
         <v>0</v>
@@ -4520,10 +4517,10 @@
         <v>0</v>
       </c>
       <c r="AC39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE39">
         <v>0</v>
@@ -4543,31 +4540,31 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -4582,31 +4579,31 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40">
         <v>0</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -4615,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC40">
         <v>0</v>
@@ -4627,113 +4624,12 @@
         <v>0</v>
       </c>
       <c r="AE40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33">
-      <c r="A41" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>1</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>1</v>
-      </c>
-      <c r="T41">
-        <v>1</v>
-      </c>
-      <c r="U41">
-        <v>1</v>
-      </c>
-      <c r="V41">
-        <v>1</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>1</v>
-      </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
-      <c r="AA41">
-        <v>1</v>
-      </c>
-      <c r="AB41">
-        <v>1</v>
-      </c>
-      <c r="AC41">
-        <v>0</v>
-      </c>
-      <c r="AD41">
-        <v>0</v>
-      </c>
-      <c r="AE41">
-        <v>1</v>
-      </c>
-      <c r="AF41">
-        <v>1</v>
-      </c>
-      <c r="AG41">
         <v>1</v>
       </c>
     </row>

--- a/outputs/stage_match.xlsx
+++ b/outputs/stage_match.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>AIR-INK: Air-Pollution to ink</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>BMW Foundation Herbert Quandt</t>
+  </si>
+  <si>
+    <t>Buenos Aires Innovation Park (City of Buenos Aires Government)</t>
   </si>
   <si>
     <t>C L Sandberg &amp; Associates</t>
@@ -587,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG40"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1002,97 +1005,97 @@
         <v>36</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>1</v>
       </c>
       <c r="V5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>1</v>
       </c>
       <c r="AB5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5">
         <v>1</v>
@@ -1112,25 +1115,25 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -1145,31 +1148,31 @@
         <v>1</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <v>1</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
         <v>1</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -1178,10 +1181,10 @@
         <v>1</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6">
         <v>1</v>
@@ -1190,13 +1193,13 @@
         <v>1</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -1409,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1510,31 +1513,31 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -1549,31 +1552,31 @@
         <v>1</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>1</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10">
         <v>1</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>1</v>
@@ -1582,10 +1585,10 @@
         <v>1</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10">
         <v>1</v>
@@ -1594,13 +1597,13 @@
         <v>1</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -1608,13 +1611,13 @@
         <v>42</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1623,7 +1626,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1638,25 +1641,25 @@
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11">
         <v>1</v>
@@ -1665,34 +1668,34 @@
         <v>1</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11">
         <v>1</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11">
         <v>1</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11">
         <v>1</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11">
         <v>1</v>
@@ -1701,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -1709,13 +1712,13 @@
         <v>43</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1724,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1739,16 +1742,16 @@
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -1757,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -1772,16 +1775,16 @@
         <v>1</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12">
         <v>1</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -1790,10 +1793,10 @@
         <v>1</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12">
         <v>1</v>
@@ -1855,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13">
         <v>1</v>
@@ -1867,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13">
         <v>1</v>
@@ -1885,7 +1888,7 @@
         <v>1</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13">
         <v>1</v>
@@ -1903,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="AG13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -1920,25 +1923,25 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -1953,31 +1956,31 @@
         <v>1</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14">
         <v>1</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14">
         <v>1</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14">
         <v>1</v>
@@ -1986,10 +1989,10 @@
         <v>1</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14">
         <v>1</v>
@@ -1998,13 +2001,13 @@
         <v>1</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -2116,31 +2119,31 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -2155,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -2164,22 +2167,22 @@
         <v>1</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16">
         <v>1</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>1</v>
@@ -2191,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16">
         <v>1</v>
@@ -2200,10 +2203,10 @@
         <v>1</v>
       </c>
       <c r="AE16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16">
         <v>0</v>
@@ -2259,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17">
         <v>1</v>
@@ -2271,7 +2274,7 @@
         <v>1</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17">
         <v>1</v>
@@ -2289,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17">
         <v>1</v>
@@ -2307,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="AG17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:33">
@@ -2318,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2461,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19">
         <v>1</v>
@@ -2473,7 +2476,7 @@
         <v>1</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19">
         <v>1</v>
@@ -2491,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19">
         <v>1</v>
@@ -2509,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -2526,25 +2529,25 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -2559,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -2568,22 +2571,22 @@
         <v>1</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20">
         <v>0</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
         <v>1</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20">
         <v>1</v>
@@ -2595,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20">
         <v>1</v>
@@ -2604,10 +2607,10 @@
         <v>1</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20">
         <v>0</v>
@@ -2621,31 +2624,31 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -2660,31 +2663,31 @@
         <v>1</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21">
         <v>1</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21">
         <v>1</v>
       </c>
       <c r="X21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>1</v>
@@ -2693,10 +2696,10 @@
         <v>1</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21">
         <v>1</v>
@@ -2705,13 +2708,13 @@
         <v>1</v>
       </c>
       <c r="AE21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:33">
@@ -2719,13 +2722,13 @@
         <v>53</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2734,7 +2737,7 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2749,16 +2752,16 @@
         <v>1</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -2767,7 +2770,7 @@
         <v>1</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22">
         <v>1</v>
@@ -2782,16 +2785,16 @@
         <v>1</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22">
         <v>1</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22">
         <v>1</v>
@@ -2800,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22">
         <v>1</v>
@@ -2829,25 +2832,25 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2862,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -2871,22 +2874,22 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23">
         <v>1</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2898,7 +2901,7 @@
         <v>1</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -2907,10 +2910,10 @@
         <v>0</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG23">
         <v>1</v>
@@ -2921,97 +2924,97 @@
         <v>55</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>1</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24">
         <v>1</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24">
         <v>1</v>
       </c>
       <c r="AB24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG24">
         <v>1</v>
@@ -3022,13 +3025,13 @@
         <v>56</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -3037,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -3052,16 +3055,16 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25">
         <v>1</v>
@@ -3070,7 +3073,7 @@
         <v>1</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25">
         <v>1</v>
@@ -3085,16 +3088,16 @@
         <v>1</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25">
         <v>1</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25">
         <v>1</v>
@@ -3103,10 +3106,10 @@
         <v>1</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE25">
         <v>1</v>
@@ -3126,31 +3129,31 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -3165,31 +3168,31 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26">
         <v>0</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -3198,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -3210,13 +3213,13 @@
         <v>0</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:33">
@@ -3224,97 +3227,97 @@
         <v>58</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27">
         <v>0</v>
       </c>
       <c r="V27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27">
         <v>0</v>
       </c>
       <c r="AB27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG27">
         <v>0</v>
@@ -3328,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -3527,97 +3530,97 @@
         <v>61</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30">
         <v>0</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA30">
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG30">
         <v>0</v>
@@ -3628,13 +3631,13 @@
         <v>62</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3643,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3658,16 +3661,16 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -3676,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="R31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -3691,16 +3694,16 @@
         <v>0</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31">
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31">
         <v>0</v>
@@ -3709,10 +3712,10 @@
         <v>0</v>
       </c>
       <c r="AC31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31">
         <v>0</v>
@@ -3934,31 +3937,31 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -3973,31 +3976,31 @@
         <v>1</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34">
         <v>1</v>
       </c>
       <c r="S34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34">
         <v>1</v>
       </c>
       <c r="X34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34">
         <v>1</v>
@@ -4006,10 +4009,10 @@
         <v>1</v>
       </c>
       <c r="AA34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC34">
         <v>1</v>
@@ -4018,13 +4021,13 @@
         <v>1</v>
       </c>
       <c r="AE34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:33">
@@ -4077,7 +4080,7 @@
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35">
         <v>1</v>
@@ -4089,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35">
         <v>1</v>
@@ -4107,7 +4110,7 @@
         <v>1</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB35">
         <v>1</v>
@@ -4125,7 +4128,7 @@
         <v>1</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:33">
@@ -4136,31 +4139,31 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -4175,7 +4178,7 @@
         <v>1</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -4184,22 +4187,22 @@
         <v>1</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36">
         <v>0</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36">
         <v>1</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36">
         <v>1</v>
@@ -4211,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC36">
         <v>1</v>
@@ -4220,10 +4223,10 @@
         <v>1</v>
       </c>
       <c r="AE36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG36">
         <v>0</v>
@@ -4237,31 +4240,31 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -4276,31 +4279,31 @@
         <v>1</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37">
         <v>1</v>
       </c>
       <c r="S37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37">
         <v>1</v>
       </c>
       <c r="X37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37">
         <v>1</v>
@@ -4309,10 +4312,10 @@
         <v>1</v>
       </c>
       <c r="AA37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC37">
         <v>1</v>
@@ -4321,13 +4324,13 @@
         <v>1</v>
       </c>
       <c r="AE37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:33">
@@ -4344,25 +4347,25 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -4377,31 +4380,31 @@
         <v>1</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38">
         <v>1</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38">
         <v>1</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38">
         <v>1</v>
@@ -4410,10 +4413,10 @@
         <v>1</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC38">
         <v>1</v>
@@ -4422,13 +4425,13 @@
         <v>1</v>
       </c>
       <c r="AE38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:33">
@@ -4436,13 +4439,13 @@
         <v>70</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -4451,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4466,16 +4469,16 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -4484,7 +4487,7 @@
         <v>0</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -4499,16 +4502,16 @@
         <v>0</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39">
         <v>0</v>
       </c>
       <c r="Y39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA39">
         <v>0</v>
@@ -4517,10 +4520,10 @@
         <v>0</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE39">
         <v>0</v>
@@ -4540,31 +4543,31 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -4579,31 +4582,31 @@
         <v>0</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40">
         <v>0</v>
       </c>
       <c r="S40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -4612,10 +4615,10 @@
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC40">
         <v>0</v>
@@ -4624,12 +4627,113 @@
         <v>0</v>
       </c>
       <c r="AE40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33">
+      <c r="A41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>1</v>
+      </c>
+      <c r="AB41">
+        <v>1</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
+      </c>
+      <c r="AF41">
+        <v>1</v>
+      </c>
+      <c r="AG41">
         <v>1</v>
       </c>
     </row>
